--- a/dados.xlsx
+++ b/dados.xlsx
@@ -18,13 +18,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -43,12 +48,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -76,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -85,6 +105,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -452,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,57 +484,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>user</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>bike_status</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>bike_id</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>bike_name</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>bike_park</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>bike_coord</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>bike_bat</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>km_ridden</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>trip_time</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>avg_speed</t>
         </is>
@@ -527,7 +550,7 @@
         <v>9834</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>2936</v>
@@ -537,16 +560,8 @@
           <t>Amalia</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Alameda</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>38.7401, -9.1339</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>32</v>
       </c>
@@ -570,7 +585,7 @@
         <v>3246</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>7964</v>
@@ -613,7 +628,7 @@
         <v>5986</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>8136</v>
@@ -625,12 +640,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aeroporto</t>
+          <t>Alameda</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>38.7700, -9.1280</t>
+          <t>38.7401, -9.1339</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -656,7 +671,7 @@
         <v>3865</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>2306</v>
@@ -668,12 +683,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Campo Grande</t>
+          <t>Alameda</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>38.7520, -9.1520</t>
+          <t>38.7401, -9.1339</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -699,7 +714,7 @@
         <v>2350</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>3068</v>
@@ -711,12 +726,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Belém</t>
+          <t>Monsanto</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>38.6969, -9.2062</t>
+          <t>38.7235, -9.2007</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -742,7 +757,7 @@
         <v>3534</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>9758</v>
@@ -871,7 +886,7 @@
         <v>9498</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>7927</v>
@@ -883,12 +898,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Prazeres</t>
+          <t>Graça</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>38.7125, -9.1706</t>
+          <t>38.7187, -9.1291</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -926,12 +941,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Campo de Ourique</t>
+          <t>Parque das Nações</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>38.7163, -9.1647</t>
+          <t>38.7693, -9.0998</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -969,12 +984,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Santa Maria Maior</t>
+          <t>Alameda</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>38.7113, -9.1324</t>
+          <t>38.7401, -9.1340</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1012,12 +1027,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Beato</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>38.7350, -9.1131</t>
+          <t>38.7066, -9.1556</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1055,12 +1070,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Alvalade</t>
+          <t>Aeroporto</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>38.7518, -9.1456</t>
+          <t>38.7700, -9.1281</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1086,7 +1101,7 @@
         <v>9056</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>3080</v>
@@ -1098,12 +1113,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Campo Pequeno</t>
+          <t>Campo Grande</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>38.7423, -9.1443</t>
+          <t>38.7520, -9.1521</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1129,7 +1144,7 @@
         <v>6511</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>6825</v>
@@ -1141,12 +1156,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lumiar</t>
+          <t>Belém</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>38.7704, -9.1593</t>
+          <t>38.6969, -9.2063</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1172,7 +1187,7 @@
         <v>3409</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>3409</v>
@@ -1184,12 +1199,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Olivais</t>
+          <t>Marvila</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>38.7687, -9.1086</t>
+          <t>38.7466, -9.1037</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1227,12 +1242,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rato</t>
+          <t>Monsanto</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>38.7150, -9.1531</t>
+          <t>38.7235, -9.2008</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1270,12 +1285,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Marquês de Pombal</t>
+          <t>Campolide</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>38.7256, -9.1508</t>
+          <t>38.7263, -9.1635</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1301,7 +1316,7 @@
         <v>1188</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>1188</v>
@@ -1313,12 +1328,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cais do Sodré</t>
+          <t>Graça</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>38.7078, -9.1449</t>
+          <t>38.7187, -9.1292</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1344,7 +1359,7 @@
         <v>1517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1517</v>
@@ -1356,12 +1371,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ajuda</t>
+          <t>Parque das Nações</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>38.7120, -9.1996</t>
+          <t>38.7693, -9.0999</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1399,12 +1414,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Monsanto</t>
+          <t>Alameda</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>38.7235, -9.2007</t>
+          <t>38.7401, -9.1341</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1430,7 +1445,7 @@
         <v>5119</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>5119</v>
@@ -1442,12 +1457,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Graça</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>38.7187, -9.1291</t>
+          <t>38.7066, -9.1557</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1473,7 +1488,7 @@
         <v>8207</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>8207</v>
@@ -1485,12 +1500,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Carnide</t>
+          <t>Aeroporto</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>38.7558, -9.1847</t>
+          <t>38.7700, -9.1282</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1505,56 +1520,6 @@
       <c r="K24" t="n">
         <v>23</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>dsgfsd</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4741</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>6333</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>dsgfds</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2569</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="n">
-        <v>5277</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Minha</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1567,10 +1532,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D18"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1865,46 +1830,6 @@
       </c>
       <c r="D16" t="n">
         <v>926654511</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>dsgfsd</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4741</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>gfdsgfds</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>gdsd</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2569</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>xxxx</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -1918,16 +1843,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="19.109375" customWidth="1" min="1" max="1"/>
-    <col width="16.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="14.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2082,6 +2007,21 @@
         <v>95</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Parque das Nações</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>38.7693, -9.0998</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB3409-8983-4EBF-BBAA-161F8AB52157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BD29B9-92C1-41E4-AEEE-7D097F1FB358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="122">
   <si>
     <t>user</t>
   </si>
@@ -384,7 +384,10 @@
     <t>Afonso</t>
   </si>
   <si>
-    <t>Rdrigo</t>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Teresa</t>
   </si>
 </sst>
 </file>
@@ -773,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1723,6 +1726,41 @@
       </c>
       <c r="K27">
         <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28">
+        <v>9012</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3240</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28">
+        <v>46</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
